--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_GPSGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="30" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -270,6 +270,105 @@
   </si>
   <si>
     <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Lock 027.000.012.023,09008</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>W.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>Lock 125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>SE.2.03.---23.111215</t>
+  </si>
+  <si>
+    <t>Lock 125.212.203.114,15353</t>
+  </si>
+  <si>
+    <t>SE.2.03.---21.111215</t>
+  </si>
+  <si>
+    <t>Lock 112.213.085.066,09008</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Danh</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>027.000.012.023,09004</t>
+  </si>
+  <si>
+    <t>IP/Port: 125.212.203.114,15757</t>
+  </si>
+  <si>
+    <t>Lỗi cấu hình thiết bị</t>
+  </si>
+  <si>
+    <t>Cấu hình lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>X.3.0.0.00036.250815</t>
+  </si>
+  <si>
+    <t>Lock 125.212.203.114,15555</t>
+  </si>
+  <si>
+    <t>Không chốt GSM do khay sim</t>
+  </si>
+  <si>
+    <t>Thay khay Sim, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC + PM</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Hỏng Diot quá áp</t>
+  </si>
+  <si>
+    <t>Thay Diot quá áp, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Không chốt GSM</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW, kiểm tra lại gia hạn dịch vụ trên thiết bị</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.120817</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại gia hạn dịch vụ trên thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>08/12/2020</t>
   </si>
 </sst>
 </file>
@@ -784,29 +883,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -829,14 +907,35 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1146,7 +1245,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1177,43 +1276,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1258,58 +1357,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="99" t="s">
+      <c r="N4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="98" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="98" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="98" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="108" t="s">
+      <c r="S4" s="102" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="98" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="98" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1334,24 +1433,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="98"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="109"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1360,7 +1459,9 @@
       <c r="B6" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="80" t="s">
+        <v>110</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>46</v>
       </c>
@@ -1372,20 +1473,40 @@
         <v>66</v>
       </c>
       <c r="H6" s="67"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="I6" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>100</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="4"/>
+      <c r="O6" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="T6" s="28"/>
       <c r="U6" s="66"/>
-      <c r="V6" s="101" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1399,7 +1520,9 @@
       <c r="B7" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="80" t="s">
+        <v>110</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>46</v>
       </c>
@@ -1411,20 +1534,40 @@
         <v>66</v>
       </c>
       <c r="H7" s="67"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="I7" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>100</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="4"/>
+      <c r="O7" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="T7" s="28"/>
       <c r="U7" s="66"/>
-      <c r="V7" s="102"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1453,7 +1596,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="66"/>
-      <c r="V8" s="102"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1482,7 +1625,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
       <c r="U9" s="66"/>
-      <c r="V9" s="102"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1511,7 +1654,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
       <c r="U10" s="66"/>
-      <c r="V10" s="102"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1540,7 +1683,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
       <c r="U11" s="66"/>
-      <c r="V11" s="102"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1569,7 +1712,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
-      <c r="V12" s="101" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1600,7 +1743,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
       <c r="U13" s="66"/>
-      <c r="V13" s="102"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1629,7 +1772,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
       <c r="U14" s="66"/>
-      <c r="V14" s="102"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1658,7 +1801,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="66"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="102"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1687,7 +1830,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="66"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="103"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2147,7 +2290,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2275,7 +2418,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2339,7 +2482,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2921,10 +3064,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="104" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="104">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2953,8 +3096,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="105"/>
-      <c r="W57" s="105"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2980,8 +3123,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4268,6 +4411,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4278,16 +4431,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4299,7 +4442,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4330,43 +4473,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="68"/>
@@ -4411,58 +4554,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="99" t="s">
+      <c r="N4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="98" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="98" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="98" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="108" t="s">
+      <c r="S4" s="102" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="98" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="98" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4487,24 +4630,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="98"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="109"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4513,32 +4656,54 @@
       <c r="B6" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="80" t="s">
+        <v>110</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="93" t="s">
         <v>72</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="H6" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>96</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="88"/>
-      <c r="V6" s="101" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4552,7 +4717,9 @@
       <c r="B7" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="80" t="s">
+        <v>110</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>51</v>
       </c>
@@ -4564,20 +4731,38 @@
         <v>66</v>
       </c>
       <c r="H7" s="67"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="53"/>
+      <c r="I7" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>107</v>
+      </c>
       <c r="N7" s="55"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="51"/>
+      <c r="O7" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="88"/>
-      <c r="V7" s="102"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4606,7 +4791,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="88"/>
-      <c r="V8" s="102"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4635,7 +4820,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="88"/>
       <c r="U9" s="88"/>
-      <c r="V9" s="102"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4664,7 +4849,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="88"/>
       <c r="U10" s="88"/>
-      <c r="V10" s="102"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4693,7 +4878,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="88"/>
       <c r="U11" s="88"/>
-      <c r="V11" s="102"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4722,7 +4907,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="88"/>
       <c r="U12" s="88"/>
-      <c r="V12" s="101" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4753,7 +4938,7 @@
       <c r="S13" s="86"/>
       <c r="T13" s="88"/>
       <c r="U13" s="88"/>
-      <c r="V13" s="102"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4782,7 +4967,7 @@
       <c r="S14" s="86"/>
       <c r="T14" s="88"/>
       <c r="U14" s="88"/>
-      <c r="V14" s="102"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4811,7 +4996,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="88"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="102"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4840,7 +5025,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="88"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="103"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4959,7 +5144,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5428,7 +5613,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5492,7 +5677,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6074,10 +6259,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="104" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="104">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6106,8 +6291,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="105"/>
-      <c r="W57" s="105"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6133,8 +6318,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7420,6 +7605,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7430,16 +7625,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
@@ -7450,8 +7635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7482,43 +7667,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="68"/>
@@ -7563,58 +7748,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="99" t="s">
+      <c r="N4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="98" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="98" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="98" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="108" t="s">
+      <c r="S4" s="102" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="98" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="98" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7639,24 +7824,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="98"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="109"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7665,7 +7850,9 @@
       <c r="B6" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="80" t="s">
+        <v>110</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>44</v>
       </c>
@@ -7676,7 +7863,7 @@
       <c r="G6" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="110" t="s">
+      <c r="H6" s="93" t="s">
         <v>77</v>
       </c>
       <c r="I6" s="71" t="s">
@@ -7695,14 +7882,22 @@
         <v>76</v>
       </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="101" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7733,7 +7928,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="102"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7762,7 +7957,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="102"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7791,7 +7986,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="102"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7820,7 +8015,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="102"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7849,7 +8044,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="102"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7878,7 +8073,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="101" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7909,7 +8104,7 @@
       <c r="S13" s="86"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="102"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7938,7 +8133,7 @@
       <c r="S14" s="86"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="102"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7967,7 +8162,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="63"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="102"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7996,7 +8191,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="63"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="103"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -8584,7 +8779,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8648,7 +8843,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9230,10 +9425,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="104" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="104">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9262,8 +9457,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="105"/>
-      <c r="W57" s="105"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9289,8 +9484,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10577,6 +10772,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10587,16 +10792,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10607,8 +10802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10639,43 +10834,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="68"/>
@@ -10720,58 +10915,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="99" t="s">
+      <c r="N4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="98" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="98" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="98" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="108" t="s">
+      <c r="S4" s="102" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="98" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="98" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -10796,24 +10991,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="98"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="109"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -10822,7 +11017,9 @@
       <c r="B6" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="80" t="s">
+        <v>110</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>47</v>
       </c>
@@ -10834,20 +11031,38 @@
         <v>66</v>
       </c>
       <c r="H6" s="67"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="53"/>
+      <c r="I6" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>109</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="92"/>
-      <c r="V6" s="101" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10861,7 +11076,9 @@
       <c r="B7" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="80" t="s">
+        <v>110</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>47</v>
       </c>
@@ -10873,20 +11090,36 @@
         <v>66</v>
       </c>
       <c r="H7" s="67"/>
-      <c r="I7" s="71"/>
+      <c r="I7" s="71" t="s">
+        <v>87</v>
+      </c>
       <c r="J7" s="53"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="53"/>
+      <c r="K7" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="55"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="51"/>
+      <c r="O7" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="92"/>
-      <c r="V7" s="102"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10898,7 +11131,9 @@
       <c r="B8" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="80"/>
+      <c r="C8" s="80" t="s">
+        <v>110</v>
+      </c>
       <c r="D8" s="51" t="s">
         <v>47</v>
       </c>
@@ -10910,20 +11145,38 @@
         <v>66</v>
       </c>
       <c r="H8" s="67"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="53"/>
+      <c r="I8" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>105</v>
+      </c>
       <c r="N8" s="55"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="51"/>
+      <c r="O8" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>102</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="92"/>
-      <c r="V8" s="102"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10935,7 +11188,9 @@
       <c r="B9" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="80"/>
+      <c r="C9" s="80" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" s="51" t="s">
         <v>47</v>
       </c>
@@ -10947,20 +11202,36 @@
         <v>66</v>
       </c>
       <c r="H9" s="67"/>
-      <c r="I9" s="71"/>
+      <c r="I9" s="71" t="s">
+        <v>79</v>
+      </c>
       <c r="J9" s="53"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="53"/>
+      <c r="K9" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
+      <c r="O9" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="92"/>
       <c r="U9" s="92"/>
-      <c r="V9" s="102"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -10972,7 +11243,9 @@
       <c r="B10" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="80" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" s="51" t="s">
         <v>47</v>
       </c>
@@ -10984,20 +11257,36 @@
         <v>66</v>
       </c>
       <c r="H10" s="67"/>
-      <c r="I10" s="71"/>
+      <c r="I10" s="71" t="s">
+        <v>85</v>
+      </c>
       <c r="J10" s="53"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="53"/>
+      <c r="K10" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="55"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="51"/>
+      <c r="O10" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="92"/>
       <c r="U10" s="92"/>
-      <c r="V10" s="102"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11026,7 +11315,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="92"/>
       <c r="U11" s="92"/>
-      <c r="V11" s="102"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11055,7 +11344,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="92"/>
       <c r="U12" s="92"/>
-      <c r="V12" s="101" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11086,7 +11375,7 @@
       <c r="S13" s="86"/>
       <c r="T13" s="92"/>
       <c r="U13" s="92"/>
-      <c r="V13" s="102"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11115,7 +11404,7 @@
       <c r="S14" s="86"/>
       <c r="T14" s="92"/>
       <c r="U14" s="92"/>
-      <c r="V14" s="102"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11144,7 +11433,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="92"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="102"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11173,7 +11462,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="92"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="103"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11291,8 +11580,8 @@
         <v>17</v>
       </c>
       <c r="W20" s="11">
-        <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <f>COUNTIF($Q$7:$Q$105,"PM")</f>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11323,7 +11612,7 @@
         <v>57</v>
       </c>
       <c r="W21" s="11">
-        <f>COUNTIF($Q$6:$Q$105,"PC")</f>
+        <f>COUNTIF($Q$7:$Q$105,"PC")</f>
         <v>0</v>
       </c>
     </row>
@@ -11355,7 +11644,7 @@
         <v>58</v>
       </c>
       <c r="W22" s="11">
-        <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
+        <f>COUNTIF($Q$7:$Q$105,"PC+PM")</f>
         <v>0</v>
       </c>
     </row>
@@ -11633,7 +11922,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11761,7 +12050,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11825,7 +12114,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12407,10 +12696,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="104" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="104">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12439,8 +12728,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="105"/>
-      <c r="W57" s="105"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12466,8 +12755,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -13753,6 +14042,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -13763,16 +14062,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
@@ -13815,43 +14104,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="96"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -13896,58 +14185,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="99" t="s">
+      <c r="N4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="98" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="107" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="98" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="98" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="108" t="s">
+      <c r="S4" s="102" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="98" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="98" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -13972,24 +14261,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="98"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="109"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -14015,7 +14304,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="101" t="s">
+      <c r="V6" s="94" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -14046,7 +14335,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="102"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14075,7 +14364,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="102"/>
+      <c r="V8" s="95"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14104,7 +14393,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="102"/>
+      <c r="V9" s="95"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -14133,7 +14422,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="102"/>
+      <c r="V10" s="95"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14162,7 +14451,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="102"/>
+      <c r="V11" s="95"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14191,7 +14480,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="101" t="s">
+      <c r="V12" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -14222,7 +14511,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="102"/>
+      <c r="V13" s="95"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14251,7 +14540,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="102"/>
+      <c r="V14" s="95"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14280,7 +14569,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="102"/>
+      <c r="V15" s="95"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14309,7 +14598,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="103"/>
+      <c r="V16" s="96"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -15543,10 +15832,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="104" t="s">
+      <c r="V56" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="104">
+      <c r="W56" s="97">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -15575,8 +15864,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="105"/>
-      <c r="W57" s="105"/>
+      <c r="V57" s="98"/>
+      <c r="W57" s="98"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -15602,8 +15891,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="106"/>
-      <c r="W58" s="106"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -16890,6 +17179,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -16900,16 +17199,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_GPSGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/02.XuLyBH/XLBH2012_GPSGlobal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAO HANH\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang12\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="30" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -886,6 +886,30 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -907,34 +931,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1276,43 +1276,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="107"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1357,58 +1357,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="109" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="109" t="s">
+      <c r="N4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="101" t="s">
+      <c r="O4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="101" t="s">
+      <c r="Q4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="109" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="101" t="s">
+      <c r="V4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="101" t="s">
+      <c r="W4" s="99" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1433,24 +1433,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="101"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="103"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="110"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="T6" s="28"/>
       <c r="U6" s="66"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="102" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="T7" s="28"/>
       <c r="U7" s="66"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="103"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="66"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="103"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="66"/>
       <c r="U9" s="66"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="103"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1654,7 +1654,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="66"/>
       <c r="U10" s="66"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="103"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1683,7 +1683,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="66"/>
       <c r="U11" s="66"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="103"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="102" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1743,7 +1743,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="66"/>
       <c r="U13" s="66"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="103"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1772,7 +1772,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="66"/>
       <c r="U14" s="66"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="103"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1801,7 +1801,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="66"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="103"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1830,7 +1830,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="66"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="104"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3064,10 +3064,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="105">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3096,8 +3096,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="106"/>
+      <c r="W57" s="106"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -3123,8 +3123,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="107"/>
+      <c r="W58" s="107"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4411,6 +4411,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4421,16 +4431,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4441,8 +4441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4473,43 +4473,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="107"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="68"/>
@@ -4554,58 +4554,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="109" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="109" t="s">
+      <c r="N4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="101" t="s">
+      <c r="O4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="101" t="s">
+      <c r="Q4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="109" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="101" t="s">
+      <c r="V4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="101" t="s">
+      <c r="W4" s="99" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4630,24 +4630,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="101"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="103"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="110"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4703,7 +4703,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="88"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="102" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4762,7 +4762,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="88"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="103"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4791,7 +4791,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="88"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="103"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4820,7 +4820,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="88"/>
       <c r="U9" s="88"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="103"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4849,7 +4849,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="88"/>
       <c r="U10" s="88"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="103"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4878,7 +4878,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="88"/>
       <c r="U11" s="88"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="103"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4907,7 +4907,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="88"/>
       <c r="U12" s="88"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="102" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4938,7 +4938,7 @@
       <c r="S13" s="86"/>
       <c r="T13" s="88"/>
       <c r="U13" s="88"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="103"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4967,7 +4967,7 @@
       <c r="S14" s="86"/>
       <c r="T14" s="88"/>
       <c r="U14" s="88"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="103"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4996,7 +4996,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="88"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="103"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -5025,7 +5025,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="88"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="104"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6259,10 +6259,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="105">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6291,8 +6291,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="106"/>
+      <c r="W57" s="106"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6318,8 +6318,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="107"/>
+      <c r="W58" s="107"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7605,6 +7605,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7615,16 +7625,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
@@ -7635,8 +7635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7667,43 +7667,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="107"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="68"/>
@@ -7748,58 +7748,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="109" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="109" t="s">
+      <c r="N4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="101" t="s">
+      <c r="O4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="101" t="s">
+      <c r="Q4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="109" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="101" t="s">
+      <c r="V4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="101" t="s">
+      <c r="W4" s="99" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7824,24 +7824,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="101"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="103"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="110"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7897,7 +7897,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="102" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7928,7 +7928,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="103"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7957,7 +7957,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="103"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7986,7 +7986,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="103"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -8015,7 +8015,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="103"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -8044,7 +8044,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="103"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -8073,7 +8073,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="102" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -8104,7 +8104,7 @@
       <c r="S13" s="86"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="103"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -8133,7 +8133,7 @@
       <c r="S14" s="86"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="103"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -8162,7 +8162,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="63"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="103"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8191,7 +8191,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="63"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="104"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9425,10 +9425,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="105">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9457,8 +9457,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="106"/>
+      <c r="W57" s="106"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9484,8 +9484,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="107"/>
+      <c r="W58" s="107"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10772,6 +10772,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10782,16 +10792,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10802,8 +10802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10834,43 +10834,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="107"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="68"/>
@@ -10915,58 +10915,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="109" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="109" t="s">
+      <c r="N4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="101" t="s">
+      <c r="O4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="101" t="s">
+      <c r="Q4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="109" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="101" t="s">
+      <c r="V4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="101" t="s">
+      <c r="W4" s="99" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -10991,24 +10991,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="101"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="103"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="110"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -11062,7 +11062,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="92"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="102" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -11119,7 +11119,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="92"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="103"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -11176,7 +11176,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="92"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="103"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -11231,7 +11231,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="92"/>
       <c r="U9" s="92"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="103"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -11286,7 +11286,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="92"/>
       <c r="U10" s="92"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="103"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -11315,7 +11315,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="92"/>
       <c r="U11" s="92"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="103"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11344,7 +11344,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="92"/>
       <c r="U12" s="92"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="102" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11375,7 +11375,7 @@
       <c r="S13" s="86"/>
       <c r="T13" s="92"/>
       <c r="U13" s="92"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="103"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11404,7 +11404,7 @@
       <c r="S14" s="86"/>
       <c r="T14" s="92"/>
       <c r="U14" s="92"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="103"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11433,7 +11433,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="92"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="103"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11462,7 +11462,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="92"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="104"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12696,10 +12696,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="105">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12728,8 +12728,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="106"/>
+      <c r="W57" s="106"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12755,8 +12755,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="107"/>
+      <c r="W58" s="107"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -14042,6 +14042,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -14052,16 +14062,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
@@ -14072,8 +14072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14104,43 +14104,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
+      <c r="U1" s="94"/>
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107" t="s">
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="107"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -14185,58 +14185,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="109" t="s">
+      <c r="L4" s="99"/>
+      <c r="M4" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="109" t="s">
+      <c r="N4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="101" t="s">
+      <c r="O4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="101" t="s">
+      <c r="Q4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="109" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="101" t="s">
+      <c r="V4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="101" t="s">
+      <c r="W4" s="99" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -14261,50 +14261,80 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="101"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="103"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="110"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="B6" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="52">
+        <v>864811036963382</v>
+      </c>
+      <c r="F6" s="90"/>
+      <c r="G6" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="67"/>
+      <c r="I6" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>100</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="4"/>
+      <c r="O6" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="102" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -14315,27 +14345,57 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
+      <c r="B7" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="52">
+        <v>866192037796396</v>
+      </c>
+      <c r="F7" s="90"/>
+      <c r="G7" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="67"/>
+      <c r="I7" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>100</v>
+      </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="4"/>
+      <c r="O7" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="95"/>
+      <c r="V7" s="103"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -14344,27 +14404,57 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>72</v>
+      </c>
       <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="G8" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" s="55"/>
+      <c r="O8" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="95"/>
+      <c r="V8" s="103"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -14373,27 +14463,55 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="52"/>
+      <c r="B9" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="52">
+        <v>866762025784305</v>
+      </c>
       <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
+      <c r="G9" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="67"/>
+      <c r="I9" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>107</v>
+      </c>
       <c r="N9" s="55"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="51"/>
+      <c r="O9" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="95"/>
+      <c r="V9" s="103"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -14402,27 +14520,57 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="56"/>
+      <c r="B10" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="52">
+        <v>868183034811740</v>
+      </c>
+      <c r="F10" s="90"/>
+      <c r="G10" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="93" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="55"/>
+      <c r="O10" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R10" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="95"/>
+      <c r="V10" s="103"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -14431,27 +14579,55 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="B11" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="52">
+        <v>861694031099144</v>
+      </c>
+      <c r="F11" s="90"/>
+      <c r="G11" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="67"/>
+      <c r="I11" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="53" t="s">
+        <v>109</v>
+      </c>
       <c r="N11" s="55"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="51"/>
+      <c r="O11" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="95"/>
+      <c r="V11" s="103"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -14460,27 +14636,53 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="53"/>
+      <c r="B12" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="52">
+        <v>866104022179140</v>
+      </c>
+      <c r="F12" s="90"/>
+      <c r="G12" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="67"/>
+      <c r="I12" s="71" t="s">
+        <v>87</v>
+      </c>
       <c r="J12" s="53"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
+      <c r="K12" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="55"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="51"/>
+      <c r="O12" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="94" t="s">
+      <c r="V12" s="102" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -14491,27 +14693,55 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
+      <c r="B13" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="52">
+        <v>863586032910378</v>
+      </c>
+      <c r="F13" s="90"/>
+      <c r="G13" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="67"/>
+      <c r="I13" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" s="53" t="s">
+        <v>105</v>
+      </c>
       <c r="N13" s="55"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="51"/>
+      <c r="O13" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R13" s="51" t="s">
+        <v>102</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="95"/>
+      <c r="V13" s="103"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -14520,27 +14750,53 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="71"/>
+      <c r="B14" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="52">
+        <v>866104027005621</v>
+      </c>
+      <c r="F14" s="90"/>
+      <c r="G14" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="67"/>
+      <c r="I14" s="71" t="s">
+        <v>79</v>
+      </c>
       <c r="J14" s="53"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="56"/>
+      <c r="K14" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="55"/>
+      <c r="O14" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="95"/>
+      <c r="V14" s="103"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -14549,27 +14805,53 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="71"/>
+      <c r="B15" s="80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="52">
+        <v>866104022164472</v>
+      </c>
+      <c r="F15" s="90"/>
+      <c r="G15" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="67"/>
+      <c r="I15" s="71" t="s">
+        <v>85</v>
+      </c>
       <c r="J15" s="53"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
+      <c r="K15" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N15" s="55"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="51"/>
+      <c r="O15" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="95"/>
+      <c r="V15" s="103"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -14598,7 +14880,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="96"/>
+      <c r="V16" s="104"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -14717,7 +14999,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15058,7 +15340,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15186,7 +15468,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15250,7 +15532,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15517,7 +15799,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15581,7 +15863,7 @@
       </c>
       <c r="W48" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102V")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15613,7 +15895,7 @@
       </c>
       <c r="W49" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15709,7 +15991,7 @@
       </c>
       <c r="W52" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15832,10 +16114,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="97" t="s">
+      <c r="V56" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="97">
+      <c r="W56" s="105">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -15864,8 +16146,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="98"/>
-      <c r="W57" s="98"/>
+      <c r="V57" s="106"/>
+      <c r="W57" s="106"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -15891,8 +16173,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="99"/>
-      <c r="W58" s="99"/>
+      <c r="V58" s="107"/>
+      <c r="W58" s="107"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -17179,6 +17461,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -17189,16 +17481,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
